--- a/Tables_and_figures_corrected.xlsx
+++ b/Tables_and_figures_corrected.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -653,6 +653,12 @@
   </si>
   <si>
     <t xml:space="preserve">Delta_theta_diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted Extinction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted Abundance</t>
   </si>
 </sst>
 </file>
@@ -1051,6 +1057,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:col>
+      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:row>
+      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="10058400" cy="7772400"/>
+    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="3" name="Picture 3"/>
+        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1133,6 +1169,36 @@
       </xdr:nvPicPr>
       <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:col>
+      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:row>
+      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="10058400" cy="7772400"/>
+    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="4" name="Picture 4"/>
+        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -9382,6 +9448,12 @@
       <c r="D1" t="s">
         <v>204</v>
       </c>
+      <c r="E1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -9396,6 +9468,12 @@
       <c r="D2" t="s">
         <v>205</v>
       </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -9410,6 +9488,12 @@
       <c r="D3" t="s">
         <v>205</v>
       </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -9424,6 +9508,12 @@
       <c r="D4" t="s">
         <v>206</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -9438,6 +9528,12 @@
       <c r="D5" t="s">
         <v>205</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -9452,6 +9548,12 @@
       <c r="D6" t="s">
         <v>205</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.588473361607911</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -9466,6 +9568,12 @@
       <c r="D7" t="s">
         <v>206</v>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -9480,6 +9588,12 @@
       <c r="D8" t="s">
         <v>205</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.185288133428838</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -9494,6 +9608,12 @@
       <c r="D9" t="s">
         <v>205</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.185288133428838</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -9508,6 +9628,12 @@
       <c r="D10" t="s">
         <v>205</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.150368894519324</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -9521,6 +9647,12 @@
       </c>
       <c r="D11" t="s">
         <v>205</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.150368894519324</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
